--- a/Written Tasks/Sprint Meeting Notes.xlsx
+++ b/Written Tasks/Sprint Meeting Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Managing Software\msp-gotogro\Written Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC344A5-0767-4B5C-8F57-7425F9343BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB7528C-4519-4BF7-AAD6-79B56B437446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11655" yWindow="5400" windowWidth="17250" windowHeight="8970" activeTab="1" xr2:uid="{FE161C9E-8EDA-4A2D-81FF-C63524B9603F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FE161C9E-8EDA-4A2D-81FF-C63524B9603F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="119">
   <si>
     <t>Timeline</t>
   </si>
@@ -318,13 +318,82 @@
     <t>Tried to implment  moving average trigger for low stock.</t>
   </si>
   <si>
-    <t>Implemented mock data into database to start generating quality reports</t>
-  </si>
-  <si>
     <t>With fresh data, viewing tables bit cluttered, implemented a search function</t>
   </si>
   <si>
     <t>Testing of moving average script, probably will have to use a different metric</t>
+  </si>
+  <si>
+    <t>Finshed UI design</t>
+  </si>
+  <si>
+    <t>Implemented a little bit of mock data into database to start generating quality reports</t>
+  </si>
+  <si>
+    <t>Continued implementing mock data</t>
+  </si>
+  <si>
+    <t>Testing, testing and more testing, also documentation for submission</t>
+  </si>
+  <si>
+    <t>Implementation of low stock inventory trigger</t>
+  </si>
+  <si>
+    <t>Implementation of low stock inventory trigger with Dylan</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>UI usability testing</t>
+  </si>
+  <si>
+    <t>Worked on the start and end date brackets for report generating</t>
+  </si>
+  <si>
+    <t>Finished the start and end date brackets for report generating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start implementating stock recomendation </t>
+  </si>
+  <si>
+    <t>Started linking button scripting for report generation</t>
+  </si>
+  <si>
+    <t>Worked on auto report generation so that they automatically create reports every 24 hours etc</t>
+  </si>
+  <si>
+    <t>Worked on auto report generation at timed intervals, research timestamp datatypes</t>
+  </si>
+  <si>
+    <t>Review of report layout, specifically the pdf form</t>
+  </si>
+  <si>
+    <t>Implemented minor changes to report output</t>
+  </si>
+  <si>
+    <t>Worked on report output for pdf report, formatting etc</t>
+  </si>
+  <si>
+    <t>Continued formatting of pdf reports, specific attention to graphical components</t>
+  </si>
+  <si>
+    <t>Reviewed CSV output formatting and made sure all data is represented using mock data</t>
+  </si>
+  <si>
+    <t>Implemented auto report generation for csv, so it generates at the same time as the pdf reports</t>
+  </si>
+  <si>
+    <t>Minor changes to UI positioning, especially tab navigation between the panels</t>
+  </si>
+  <si>
+    <t>Added UI components to the POS interface which remove a selected item or the entire order, more flexible than before</t>
+  </si>
+  <si>
+    <t>Added UI option to ammend order as well to the POS system</t>
+  </si>
+  <si>
+    <t>Fixed input bugs where a negative input would cause the inventory level to increase</t>
   </si>
 </sst>
 </file>
@@ -1033,17 +1102,17 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="7" customWidth="1"/>
-    <col min="4" max="5" width="17.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="7" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="7" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" style="7" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="8" hidden="1" customWidth="1"/>
     <col min="7" max="11" width="17.85546875" style="7" customWidth="1"/>
     <col min="12" max="16384" width="8.85546875" style="7"/>
   </cols>
@@ -1112,16 +1181,26 @@
         <v>82</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1142,11 +1221,21 @@
       <c r="F4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1165,15 +1254,25 @@
         <v>92</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1192,13 +1291,23 @@
       <c r="F6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1217,13 +1326,23 @@
       <c r="F7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="G7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1242,11 +1361,21 @@
       <c r="F8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
